--- a/examples/plan-iteration/artifact/script/Script1.xlsx
+++ b/examples/plan-iteration/artifact/script/Script1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/plan-iteration/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3495B89C-381A-FC43-96EF-799F5A40D10A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3495B89C-381A-FC43-96EF-799F5A40D10A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10960" windowWidth="51200" windowHeight="21040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21040" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10960"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="531">
   <si>
     <t>description</t>
   </si>
@@ -1657,12 +1657,19 @@
   <si>
     <t>ProceedIf( ${nexial.scope.currentIteration} = 4 )</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1745,8 +1752,210 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1765,8 +1974,348 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1804,152 +2353,812 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="70">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1983,7 +3192,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2008,10 +3217,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2046,7 +3255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2081,7 +3290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2175,21 +3384,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2206,7 +3415,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2258,26 +3467,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD127"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2366,7 +3575,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>370</v>
       </c>
@@ -2455,7 +3664,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>454</v>
       </c>
@@ -2538,7 +3747,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>476</v>
       </c>
@@ -2618,7 +3827,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2686,7 +3895,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2748,7 +3957,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2804,7 +4013,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2857,7 +4066,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2901,7 +4110,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>346</v>
       </c>
@@ -2939,7 +4148,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2974,7 +4183,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>332</v>
       </c>
@@ -3009,7 +4218,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3044,7 +4253,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>477</v>
       </c>
@@ -3079,7 +4288,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -3111,7 +4320,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -3143,7 +4352,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>238</v>
       </c>
@@ -3166,7 +4375,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -3186,7 +4395,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>395</v>
       </c>
@@ -3206,7 +4415,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>411</v>
       </c>
@@ -3226,7 +4435,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>412</v>
       </c>
@@ -3246,7 +4455,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>356</v>
       </c>
@@ -3263,7 +4472,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>396</v>
       </c>
@@ -3280,7 +4489,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -3297,7 +4506,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -3314,7 +4523,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3331,7 +4540,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -3348,7 +4557,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>413</v>
       </c>
@@ -3365,7 +4574,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -3379,7 +4588,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="E30" t="s">
         <v>415</v>
       </c>
@@ -3390,7 +4599,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="E31" t="s">
         <v>64</v>
       </c>
@@ -3401,7 +4610,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>65</v>
       </c>
@@ -3412,7 +4621,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>66</v>
       </c>
@@ -3423,7 +4632,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>67</v>
       </c>
@@ -3434,7 +4643,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>68</v>
       </c>
@@ -3445,7 +4654,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>69</v>
       </c>
@@ -3456,7 +4665,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>70</v>
       </c>
@@ -3467,7 +4676,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>71</v>
       </c>
@@ -3478,7 +4687,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="39" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="G39" t="s">
         <v>266</v>
       </c>
@@ -3486,7 +4695,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>78</v>
       </c>
@@ -3494,7 +4703,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>210</v>
       </c>
@@ -3502,7 +4711,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
         <v>288</v>
       </c>
@@ -3510,7 +4719,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="G43" t="s">
         <v>299</v>
       </c>
@@ -3518,7 +4727,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="G44" t="s">
         <v>300</v>
       </c>
@@ -3526,7 +4735,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="G45" t="s">
         <v>342</v>
       </c>
@@ -3534,7 +4743,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="G46" t="s">
         <v>341</v>
       </c>
@@ -3542,7 +4751,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="47" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="G47" t="s">
         <v>209</v>
       </c>
@@ -3550,7 +4759,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="G48" t="s">
         <v>319</v>
       </c>
@@ -3558,7 +4767,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="G49" t="s">
         <v>338</v>
       </c>
@@ -3566,7 +4775,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="G50" t="s">
         <v>367</v>
       </c>
@@ -3574,7 +4783,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="G51" t="s">
         <v>301</v>
       </c>
@@ -3582,7 +4791,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="G52" t="s">
         <v>355</v>
       </c>
@@ -3590,7 +4799,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="G53" t="s">
         <v>330</v>
       </c>
@@ -3598,7 +4807,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="G54" t="s">
         <v>267</v>
       </c>
@@ -3606,7 +4815,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="G55" t="s">
         <v>291</v>
       </c>
@@ -3614,7 +4823,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="G56" t="s">
         <v>292</v>
       </c>
@@ -3622,7 +4831,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="57" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="G57" t="s">
         <v>293</v>
       </c>
@@ -3630,7 +4839,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="G58" t="s">
         <v>302</v>
       </c>
@@ -3638,7 +4847,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="G59" t="s">
         <v>311</v>
       </c>
@@ -3646,7 +4855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="G60" t="s">
         <v>336</v>
       </c>
@@ -3654,7 +4863,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="G61" t="s">
         <v>308</v>
       </c>
@@ -3662,7 +4871,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="G62" t="s">
         <v>309</v>
       </c>
@@ -3670,7 +4879,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="G63" t="s">
         <v>368</v>
       </c>
@@ -3678,7 +4887,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="G64" t="s">
         <v>369</v>
       </c>
@@ -3686,7 +4895,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="65" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="G65" t="s">
         <v>344</v>
       </c>
@@ -3694,7 +4903,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="G66" t="s">
         <v>312</v>
       </c>
@@ -3702,7 +4911,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="G67" t="s">
         <v>268</v>
       </c>
@@ -3710,7 +4919,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="G68" t="s">
         <v>352</v>
       </c>
@@ -3718,7 +4927,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="69" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="G69" t="s">
         <v>313</v>
       </c>
@@ -3726,7 +4935,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="G70" t="s">
         <v>409</v>
       </c>
@@ -3734,7 +4943,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="G71" t="s">
         <v>303</v>
       </c>
@@ -3742,7 +4951,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="G72" t="s">
         <v>410</v>
       </c>
@@ -3750,7 +4959,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="G73" t="s">
         <v>261</v>
       </c>
@@ -3758,7 +4967,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="G74" t="s">
         <v>508</v>
       </c>
@@ -3766,7 +4975,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="75" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="G75" t="s">
         <v>343</v>
       </c>
@@ -3774,7 +4983,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="76" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="G76" t="s">
         <v>279</v>
       </c>
@@ -3782,7 +4991,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="77" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="G77" t="s">
         <v>285</v>
       </c>
@@ -3790,7 +4999,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="G78" t="s">
         <v>290</v>
       </c>
@@ -3798,7 +5007,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="G79" t="s">
         <v>428</v>
       </c>
@@ -3806,7 +5015,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="G80" t="s">
         <v>331</v>
       </c>
@@ -3814,7 +5023,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="81" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="G81" t="s">
         <v>269</v>
       </c>
@@ -3822,7 +5031,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="G82" t="s">
         <v>280</v>
       </c>
@@ -3830,7 +5039,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="G83" t="s">
         <v>286</v>
       </c>
@@ -3838,7 +5047,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="G84" t="s">
         <v>275</v>
       </c>
@@ -3846,7 +5055,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="85" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="G85" t="s">
         <v>270</v>
       </c>
@@ -3854,7 +5063,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="G86" t="s">
         <v>287</v>
       </c>
@@ -3862,7 +5071,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="87" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="G87" t="s">
         <v>271</v>
       </c>
@@ -3870,7 +5079,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="G88" t="s">
         <v>272</v>
       </c>
@@ -3878,7 +5087,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="G89" t="s">
         <v>304</v>
       </c>
@@ -3886,7 +5095,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="G90" t="s">
         <v>310</v>
       </c>
@@ -3894,7 +5103,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="G91" t="s">
         <v>294</v>
       </c>
@@ -3902,7 +5111,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="G92" t="s">
         <v>339</v>
       </c>
@@ -3910,7 +5119,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="93" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="G93" t="s">
         <v>276</v>
       </c>
@@ -3918,7 +5127,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="94" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="G94" t="s">
         <v>277</v>
       </c>
@@ -3926,194 +5135,204 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="X95" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="X96" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="X97" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="X98" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="X99" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="X100" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="101" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="X101" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="X102" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X102" t="s">
+    <row r="103">
+      <c r="X103" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="X104" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="103" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="117" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X123" t="s">
+    <row r="125">
+      <c r="X125" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X124" t="s">
+    <row r="126">
+      <c r="X126" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="125" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X125" t="s">
+    <row r="127">
+      <c r="X127" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="64.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="51.33203125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="16.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="29.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="64.83203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="35.83203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="51.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4144,7 +5363,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>47</v>
       </c>
@@ -4165,7 +5384,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4182,7 +5401,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>220</v>
       </c>
@@ -4227,7 +5446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>467</v>
       </c>
@@ -4252,7 +5471,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row ht="96" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4275,7 +5494,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>510</v>
       </c>
@@ -4302,7 +5521,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4327,7 +5546,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -4352,7 +5571,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -4375,7 +5594,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -4400,7 +5619,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -4423,7 +5642,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>520</v>
       </c>
@@ -4450,7 +5669,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -4475,7 +5694,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -4500,7 +5719,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -4525,7 +5744,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13" t="s">
@@ -4537,6 +5756,7 @@
       <c r="E17" s="7" t="s">
         <v>516</v>
       </c>
+      <c r="F17"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -4547,7 +5767,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
@@ -4570,7 +5790,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>521</v>
       </c>
@@ -4597,7 +5817,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -4622,7 +5842,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13" t="s">
@@ -4647,7 +5867,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13" t="s">
@@ -4672,7 +5892,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13" t="s">
@@ -4684,6 +5904,7 @@
       <c r="E23" s="7" t="s">
         <v>516</v>
       </c>
+      <c r="F23"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4694,7 +5915,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13" t="s">
@@ -4717,7 +5938,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>522</v>
       </c>
@@ -4744,7 +5965,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13" t="s">
@@ -4769,7 +5990,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13" t="s">
@@ -4794,7 +6015,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
@@ -4819,7 +6040,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13" t="s">
@@ -4831,6 +6052,7 @@
       <c r="E29" s="7" t="s">
         <v>516</v>
       </c>
+      <c r="F29"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -4841,7 +6063,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13" t="s">
@@ -4866,7 +6088,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4883,7 +6105,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4900,7 +6122,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4917,7 +6139,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4934,7 +6156,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4951,7 +6173,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4968,7 +6190,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4985,7 +6207,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5002,7 +6224,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5019,7 +6241,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5036,7 +6258,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5053,7 +6275,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5070,7 +6292,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5087,7 +6309,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5104,7 +6326,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5121,7 +6343,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5138,7 +6360,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5155,7 +6377,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5172,7 +6394,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5189,7 +6411,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5206,7 +6428,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5223,7 +6445,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5240,7 +6462,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5257,7 +6479,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5274,7 +6496,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5291,7 +6513,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5308,7 +6530,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5325,7 +6547,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5342,7 +6564,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5359,7 +6581,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5376,7 +6598,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5393,7 +6615,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5410,7 +6632,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5427,7 +6649,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5444,7 +6666,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5461,7 +6683,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5478,7 +6700,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5495,7 +6717,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5512,7 +6734,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5529,7 +6751,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5546,7 +6768,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5563,7 +6785,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5580,7 +6802,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5597,7 +6819,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5614,7 +6836,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5631,7 +6853,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5648,7 +6870,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5665,7 +6887,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5682,7 +6904,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5699,7 +6921,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5716,7 +6938,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5733,7 +6955,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5750,7 +6972,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5767,7 +6989,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5784,7 +7006,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5801,7 +7023,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5818,7 +7040,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5835,7 +7057,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5852,7 +7074,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5869,7 +7091,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5886,7 +7108,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5903,7 +7125,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5920,7 +7142,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5937,7 +7159,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5954,7 +7176,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5971,7 +7193,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5988,7 +7210,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6005,7 +7227,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6022,7 +7244,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6039,7 +7261,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6056,7 +7278,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -6073,7 +7295,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -6090,7 +7312,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -6107,7 +7329,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -6124,7 +7346,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -6141,7 +7363,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -6158,7 +7380,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -6175,7 +7397,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6192,7 +7414,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6209,7 +7431,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6226,7 +7448,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6243,7 +7465,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6260,7 +7482,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6277,7 +7499,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6294,7 +7516,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6311,7 +7533,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6328,7 +7550,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6345,7 +7567,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6362,7 +7584,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6379,7 +7601,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6396,7 +7618,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6413,7 +7635,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6430,7 +7652,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6447,7 +7669,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6464,7 +7686,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6481,7 +7703,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6498,7 +7720,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6515,7 +7737,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6532,7 +7754,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6549,7 +7771,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6566,7 +7788,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6583,7 +7805,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6600,7 +7822,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6617,7 +7839,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6634,7 +7856,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6651,7 +7873,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6668,7 +7890,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6685,7 +7907,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6702,7 +7924,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6719,7 +7941,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6736,7 +7958,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6753,7 +7975,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -6770,7 +7992,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -6787,7 +8009,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -6804,7 +8026,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6821,7 +8043,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -6838,7 +8060,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -6855,7 +8077,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6872,7 +8094,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6889,7 +8111,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6906,7 +8128,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -6923,7 +8145,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -6940,7 +8162,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -6957,7 +8179,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6974,7 +8196,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6991,7 +8213,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -7008,7 +8230,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -7025,7 +8247,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -7042,7 +8264,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -7059,7 +8281,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -7076,7 +8298,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -7093,7 +8315,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -7110,7 +8332,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -7127,7 +8349,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -7144,7 +8366,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -7161,7 +8383,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -7178,7 +8400,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7195,7 +8417,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7212,7 +8434,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7229,7 +8451,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7246,7 +8468,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7263,7 +8485,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7280,7 +8502,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7297,7 +8519,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7314,7 +8536,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7331,7 +8553,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7348,7 +8570,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7365,7 +8587,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7382,7 +8604,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7399,7 +8621,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7416,7 +8638,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7433,7 +8655,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7450,7 +8672,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7467,7 +8689,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7484,7 +8706,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7501,7 +8723,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7518,7 +8740,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7535,7 +8757,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7552,7 +8774,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7569,7 +8791,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7586,7 +8808,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7603,7 +8825,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7620,7 +8842,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7637,7 +8859,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7654,7 +8876,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7671,7 +8893,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7688,7 +8910,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7705,7 +8927,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7722,7 +8944,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7739,7 +8961,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7756,7 +8978,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -7773,7 +8995,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -7790,7 +9012,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -7807,7 +9029,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7824,7 +9046,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -7841,7 +9063,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -7858,7 +9080,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7875,7 +9097,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7892,7 +9114,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7909,7 +9131,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -7926,7 +9148,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -7943,7 +9165,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -7960,7 +9182,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7977,7 +9199,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7994,7 +9216,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -8011,7 +9233,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -8028,7 +9250,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -8045,7 +9267,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -8062,7 +9284,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -8079,7 +9301,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -8096,7 +9318,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -8113,7 +9335,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -8130,7 +9352,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -8147,7 +9369,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -8164,7 +9386,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -8181,7 +9403,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8198,7 +9420,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8215,7 +9437,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8232,7 +9454,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8249,7 +9471,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8266,7 +9488,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8283,7 +9505,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8300,7 +9522,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8317,7 +9539,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8334,7 +9556,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8351,7 +9573,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8368,7 +9590,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8385,7 +9607,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8402,7 +9624,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8419,7 +9641,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8436,7 +9658,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8453,7 +9675,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8470,7 +9692,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8487,7 +9709,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8504,7 +9726,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8521,7 +9743,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8538,7 +9760,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8555,7 +9777,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8572,7 +9794,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8589,7 +9811,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8606,7 +9828,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8623,7 +9845,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8640,7 +9862,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8657,7 +9879,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8674,7 +9896,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8691,7 +9913,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8708,7 +9930,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8725,7 +9947,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8742,7 +9964,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8759,7 +9981,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -8776,7 +9998,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -8793,7 +10015,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -8810,7 +10032,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8827,7 +10049,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -8844,7 +10066,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -8861,7 +10083,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8878,7 +10100,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8895,7 +10117,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -8912,7 +10134,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -8929,7 +10151,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -8946,7 +10168,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8963,7 +10185,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8980,7 +10202,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8997,7 +10219,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -9014,7 +10236,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -9031,7 +10253,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -9048,7 +10270,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -9065,7 +10287,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -9082,7 +10304,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -9099,7 +10321,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -9116,7 +10338,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -9133,7 +10355,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -9150,7 +10372,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -9167,7 +10389,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -9184,7 +10406,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9201,7 +10423,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9218,7 +10440,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9235,7 +10457,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9252,7 +10474,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9269,7 +10491,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9286,7 +10508,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9303,7 +10525,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9320,7 +10542,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9337,7 +10559,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9354,7 +10576,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9371,7 +10593,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9388,7 +10610,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9405,7 +10627,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9422,7 +10644,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9439,7 +10661,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9456,7 +10678,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -9473,7 +10695,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -9490,7 +10712,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -9507,7 +10729,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -9524,7 +10746,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -9541,7 +10763,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -9558,7 +10780,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -9575,7 +10797,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -9592,7 +10814,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -9609,7 +10831,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -9626,7 +10848,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -9643,7 +10865,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -9660,7 +10882,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -9677,7 +10899,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -9694,7 +10916,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -9711,7 +10933,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -9728,7 +10950,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -9745,7 +10967,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -9762,7 +10984,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -9779,7 +11001,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -9796,7 +11018,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -9813,7 +11035,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -9830,7 +11052,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -9847,7 +11069,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -9864,7 +11086,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -9881,7 +11103,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -9898,7 +11120,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -9915,7 +11137,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -9932,7 +11154,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -9949,7 +11171,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9966,7 +11188,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9983,7 +11205,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -10000,7 +11222,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -10017,7 +11239,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -10034,7 +11256,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -10051,7 +11273,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -10068,7 +11290,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -10085,7 +11307,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -10102,7 +11324,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -10119,7 +11341,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -10136,7 +11358,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -10153,7 +11375,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -10170,7 +11392,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -10187,7 +11409,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -10204,7 +11426,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -10221,7 +11443,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -10238,7 +11460,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -10255,7 +11477,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -10272,7 +11494,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -10289,7 +11511,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -10306,7 +11528,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -10323,7 +11545,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -10340,7 +11562,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -10357,7 +11579,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -10374,7 +11596,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -10391,7 +11613,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -10408,7 +11630,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -10425,7 +11647,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -10442,7 +11664,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -10459,7 +11681,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -10476,7 +11698,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -10493,7 +11715,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -10510,7 +11732,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -10527,7 +11749,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -10544,7 +11766,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -10561,7 +11783,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -10578,7 +11800,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -10595,7 +11817,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -10612,7 +11834,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -10629,7 +11851,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -10646,7 +11868,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -10663,7 +11885,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -10680,7 +11902,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -10697,7 +11919,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -10714,7 +11936,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -10731,7 +11953,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -10748,7 +11970,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -10765,7 +11987,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -10782,7 +12004,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -10799,7 +12021,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -10816,7 +12038,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -10833,7 +12055,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -10850,7 +12072,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -10867,7 +12089,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -10884,7 +12106,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -10901,7 +12123,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -10918,7 +12140,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -10935,7 +12157,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -10952,7 +12174,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10969,7 +12191,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10986,7 +12208,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -11003,7 +12225,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -11020,7 +12242,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -11037,7 +12259,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -11054,7 +12276,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -11071,7 +12293,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -11088,7 +12310,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -11105,7 +12327,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -11122,7 +12344,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -11139,7 +12361,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -11156,7 +12378,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -11173,7 +12395,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -11190,7 +12412,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -11207,7 +12429,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -11224,7 +12446,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -11241,7 +12463,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -11258,7 +12480,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -11275,7 +12497,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -11292,7 +12514,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -11309,7 +12531,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -11326,7 +12548,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -11343,7 +12565,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -11360,7 +12582,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -11377,7 +12599,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -11394,7 +12616,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -11411,7 +12633,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -11428,7 +12650,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -11445,7 +12667,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -11462,7 +12684,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -11479,7 +12701,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -11496,7 +12718,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -11513,7 +12735,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -11530,7 +12752,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -11547,7 +12769,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -11564,7 +12786,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -11581,7 +12803,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -11598,7 +12820,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -11615,7 +12837,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -11632,7 +12854,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -11649,7 +12871,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -11666,7 +12888,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -11683,7 +12905,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -11700,7 +12922,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -11717,7 +12939,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -11734,7 +12956,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -11751,7 +12973,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -11768,7 +12990,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -11785,7 +13007,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -11802,7 +13024,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -11819,7 +13041,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -11836,7 +13058,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -11853,7 +13075,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -11870,7 +13092,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -11887,7 +13109,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -11904,7 +13126,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -11921,7 +13143,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -11938,7 +13160,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -11955,7 +13177,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11972,7 +13194,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11989,7 +13211,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -12006,7 +13228,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -12023,7 +13245,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -12040,7 +13262,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -12057,7 +13279,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -12074,7 +13296,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -12091,7 +13313,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -12108,7 +13330,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -12125,7 +13347,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -12142,7 +13364,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -12159,7 +13381,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -12176,7 +13398,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -12193,7 +13415,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -12210,7 +13432,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -12227,7 +13449,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -12244,7 +13466,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -12261,7 +13483,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -12278,7 +13500,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -12295,7 +13517,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -12312,7 +13534,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -12329,7 +13551,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -12346,7 +13568,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -12363,7 +13585,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -12380,7 +13602,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -12397,7 +13619,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -12414,7 +13636,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -12431,7 +13653,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -12448,7 +13670,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -12465,7 +13687,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -12482,7 +13704,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -12499,7 +13721,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -12516,7 +13738,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -12533,7 +13755,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -12550,7 +13772,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -12567,7 +13789,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -12584,7 +13806,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -12601,7 +13823,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -12618,7 +13840,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -12635,7 +13857,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -12652,7 +13874,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -12669,7 +13891,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -12686,7 +13908,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -12703,7 +13925,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -12720,7 +13942,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -12737,7 +13959,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -12754,7 +13976,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -12771,7 +13993,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -12788,7 +14010,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -12805,7 +14027,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -12822,7 +14044,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -12839,7 +14061,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -12856,7 +14078,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -12873,7 +14095,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -12890,7 +14112,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -12907,7 +14129,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -12924,7 +14146,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -12941,7 +14163,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -12958,7 +14180,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12975,7 +14197,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12992,7 +14214,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -13009,7 +14231,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -13026,7 +14248,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -13043,7 +14265,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -13060,7 +14282,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -13077,7 +14299,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -13094,7 +14316,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -13111,7 +14333,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -13128,7 +14350,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -13145,7 +14367,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -13162,7 +14384,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -13179,7 +14401,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -13196,7 +14418,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -13213,7 +14435,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -13230,7 +14452,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -13247,7 +14469,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -13264,7 +14486,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -13281,7 +14503,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -13298,7 +14520,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -13315,7 +14537,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -13332,7 +14554,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -13349,7 +14571,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -13366,7 +14588,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -13383,7 +14605,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -13400,7 +14622,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -13417,7 +14639,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -13434,7 +14656,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -13451,7 +14673,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -13468,7 +14690,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -13485,7 +14707,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -13502,7 +14724,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -13519,7 +14741,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -13536,7 +14758,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -13553,7 +14775,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -13570,7 +14792,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -13587,7 +14809,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -13604,7 +14826,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -13621,7 +14843,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -13638,7 +14860,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -13655,7 +14877,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -13672,7 +14894,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -13689,7 +14911,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -13706,7 +14928,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -13723,7 +14945,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -13740,7 +14962,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -13757,7 +14979,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -13774,7 +14996,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -13791,7 +15013,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -13808,7 +15030,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -13825,7 +15047,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -13842,7 +15064,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -13859,7 +15081,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -13876,7 +15098,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -13893,7 +15115,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -13910,7 +15132,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -13927,7 +15149,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -13944,7 +15166,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13961,7 +15183,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13978,7 +15200,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13995,7 +15217,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -14012,7 +15234,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -14029,7 +15251,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -14046,7 +15268,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -14063,7 +15285,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -14080,7 +15302,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -14097,7 +15319,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -14114,7 +15336,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -14131,7 +15353,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -14148,7 +15370,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -14165,7 +15387,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -14182,7 +15404,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -14199,7 +15421,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -14216,7 +15438,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -14233,7 +15455,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -14250,7 +15472,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -14267,7 +15489,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -14284,7 +15506,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -14301,7 +15523,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -14318,7 +15540,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -14335,7 +15557,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -14352,7 +15574,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -14369,7 +15591,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -14386,7 +15608,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -14403,7 +15625,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -14420,7 +15642,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -14437,7 +15659,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -14454,7 +15676,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -14471,7 +15693,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -14488,7 +15710,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -14505,7 +15727,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -14522,7 +15744,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -14539,7 +15761,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -14556,7 +15778,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -14573,7 +15795,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -14590,7 +15812,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -14607,7 +15829,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -14624,7 +15846,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -14641,7 +15863,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -14658,7 +15880,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -14675,7 +15897,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -14692,7 +15914,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -14709,7 +15931,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -14726,7 +15948,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -14743,7 +15965,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -14760,7 +15982,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -14777,7 +15999,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -14794,7 +16016,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -14811,7 +16033,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -14828,7 +16050,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -14845,7 +16067,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -14862,7 +16084,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -14879,7 +16101,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -14896,7 +16118,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -14913,7 +16135,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -14930,7 +16152,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -14947,7 +16169,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14964,7 +16186,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14981,7 +16203,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14998,7 +16220,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -15015,7 +16237,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -15032,7 +16254,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -15049,7 +16271,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -15066,7 +16288,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -15083,7 +16305,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -15100,7 +16322,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -15117,7 +16339,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -15134,7 +16356,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -15151,7 +16373,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -15168,7 +16390,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -15185,7 +16407,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -15202,7 +16424,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -15219,7 +16441,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -15236,7 +16458,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -15253,7 +16475,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -15270,7 +16492,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -15287,7 +16509,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -15304,7 +16526,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -15321,7 +16543,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="27"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -15338,7 +16560,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="27"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -15355,7 +16577,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="27"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -15372,360 +16594,360 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15733,24 +16955,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C700" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/examples/plan-iteration/artifact/script/Script1.xlsx
+++ b/examples/plan-iteration/artifact/script/Script1.xlsx
@@ -31,26 +31,27 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="538">
   <si>
     <t>description</t>
   </si>
@@ -1662,6 +1663,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1691,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1954,8 +1976,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="64">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2314,8 +2538,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -2917,6 +3481,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2924,7 +4052,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3105,52 +4233,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="45" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="66" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="69" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="72" fontId="47" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="75" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="50" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="81" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="84" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="87" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="87" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="96" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="99" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="105" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="111" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="114" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3475,7 +4699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3527,51 +4751,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>531</v>
+      </c>
+      <c r="O1" t="s">
         <v>477</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>194</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>238</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>395</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>412</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>356</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>396</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>413</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3616,51 +4843,54 @@
         <v>434</v>
       </c>
       <c r="N2" t="s">
+        <v>532</v>
+      </c>
+      <c r="O2" t="s">
         <v>488</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>416</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>429</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>252</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>216</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>397</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>418</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>419</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>380</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>406</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>169</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>174</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>181</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>431</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -3705,45 +4935,48 @@
         <v>86</v>
       </c>
       <c r="N3" t="s">
+        <v>533</v>
+      </c>
+      <c r="O3" t="s">
         <v>489</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>430</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>239</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>217</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>398</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>420</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>381</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>407</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>170</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>175</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>363</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>182</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3785,45 +5018,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>534</v>
+      </c>
+      <c r="O4" t="s">
         <v>490</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>240</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>218</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>399</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>421</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>357</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>408</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>353</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>171</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>176</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>182</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>423</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3858,40 +5094,43 @@
       <c r="M5" t="s">
         <v>87</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q5" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>241</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>219</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>400</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>422</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>172</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>177</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>183</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>424</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3923,37 +5162,40 @@
       <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>242</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>390</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>401</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>360</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>444</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>178</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>184</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>425</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3979,37 +5221,40 @@
       <c r="M7" t="s">
         <v>314</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>243</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>417</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>402</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>359</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>445</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>179</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>185</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>426</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4035,34 +5280,34 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>91</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>244</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>403</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>361</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>100</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>173</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>180</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>186</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>427</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4088,25 +5333,25 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>92</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>245</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>404</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>187</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4129,22 +5374,22 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>436</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>246</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>256</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>188</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>474</v>
       </c>
     </row>
@@ -4167,19 +5412,19 @@
       <c r="M11" t="s">
         <v>471</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>257</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>258</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>500</v>
       </c>
     </row>
@@ -4202,19 +5447,19 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>189</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>501</v>
       </c>
     </row>
@@ -4237,25 +5482,25 @@
       <c r="M13" t="s">
         <v>472</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>325</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>190</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -4272,25 +5517,25 @@
       <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>191</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>477</v>
       </c>
       <c r="E15" t="s">
         <v>59</v>
@@ -4304,25 +5549,25 @@
       <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>491</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>192</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
         <v>384</v>
@@ -4336,25 +5581,25 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>492</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>193</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>385</v>
@@ -4365,19 +5610,19 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>493</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>466</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
         <v>414</v>
@@ -4388,16 +5633,16 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
@@ -4408,16 +5653,16 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
@@ -4428,16 +5673,16 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E21" t="s">
         <v>255</v>
@@ -4448,16 +5693,16 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="E22" t="s">
         <v>62</v>
@@ -4468,13 +5713,13 @@
       <c r="K22" t="s">
         <v>470</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="E23" t="s">
         <v>320</v>
@@ -4485,13 +5730,13 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>396</v>
       </c>
       <c r="E24" t="s">
         <v>63</v>
@@ -4502,13 +5747,13 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>448</v>
@@ -4519,13 +5764,13 @@
       <c r="K25" t="s">
         <v>85</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>224</v>
@@ -4536,13 +5781,13 @@
       <c r="K26" t="s">
         <v>433</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>225</v>
@@ -4553,13 +5798,13 @@
       <c r="K27" t="s">
         <v>44</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>413</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>468</v>
@@ -4570,13 +5815,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>469</v>
@@ -4584,18 +5829,21 @@
       <c r="G29" t="s">
         <v>283</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
       <c r="E30" t="s">
         <v>415</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4606,7 +5854,7 @@
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4617,7 +5865,7 @@
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4628,7 +5876,7 @@
       <c r="G33" t="s">
         <v>507</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4639,7 +5887,7 @@
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4650,7 +5898,7 @@
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4661,7 +5909,7 @@
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4672,7 +5920,7 @@
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4683,7 +5931,7 @@
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>437</v>
       </c>
     </row>
@@ -4691,7 +5939,7 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>392</v>
       </c>
     </row>
@@ -4699,7 +5947,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4707,7 +5955,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4715,7 +5963,7 @@
       <c r="G42" t="s">
         <v>288</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4723,7 +5971,7 @@
       <c r="G43" t="s">
         <v>299</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4731,7 +5979,7 @@
       <c r="G44" t="s">
         <v>300</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4739,7 +5987,7 @@
       <c r="G45" t="s">
         <v>342</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4747,7 +5995,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>438</v>
       </c>
     </row>
@@ -4755,7 +6003,7 @@
       <c r="G47" t="s">
         <v>209</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4763,7 +6011,7 @@
       <c r="G48" t="s">
         <v>319</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4771,7 +6019,7 @@
       <c r="G49" t="s">
         <v>338</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4779,7 +6027,7 @@
       <c r="G50" t="s">
         <v>367</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4787,7 +6035,7 @@
       <c r="G51" t="s">
         <v>301</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4795,7 +6043,7 @@
       <c r="G52" t="s">
         <v>355</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4803,7 +6051,7 @@
       <c r="G53" t="s">
         <v>330</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>463</v>
       </c>
     </row>
@@ -4811,7 +6059,7 @@
       <c r="G54" t="s">
         <v>267</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4819,7 +6067,7 @@
       <c r="G55" t="s">
         <v>291</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4827,7 +6075,7 @@
       <c r="G56" t="s">
         <v>292</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4835,7 +6083,7 @@
       <c r="G57" t="s">
         <v>293</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4843,7 +6091,7 @@
       <c r="G58" t="s">
         <v>302</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4851,7 +6099,7 @@
       <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4859,7 +6107,7 @@
       <c r="G60" t="s">
         <v>336</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4867,7 +6115,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4875,7 +6123,7 @@
       <c r="G62" t="s">
         <v>309</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4883,7 +6131,7 @@
       <c r="G63" t="s">
         <v>368</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4891,7 +6139,7 @@
       <c r="G64" t="s">
         <v>369</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>439</v>
       </c>
     </row>
@@ -4899,7 +6147,7 @@
       <c r="G65" t="s">
         <v>344</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>473</v>
       </c>
     </row>
@@ -4907,7 +6155,7 @@
       <c r="G66" t="s">
         <v>312</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4915,7 +6163,7 @@
       <c r="G67" t="s">
         <v>268</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4923,7 +6171,7 @@
       <c r="G68" t="s">
         <v>352</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>440</v>
       </c>
     </row>
@@ -4931,7 +6179,7 @@
       <c r="G69" t="s">
         <v>313</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4939,7 +6187,7 @@
       <c r="G70" t="s">
         <v>409</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4947,7 +6195,7 @@
       <c r="G71" t="s">
         <v>303</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4955,7 +6203,7 @@
       <c r="G72" t="s">
         <v>410</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4963,7 +6211,7 @@
       <c r="G73" t="s">
         <v>261</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4971,7 +6219,7 @@
       <c r="G74" t="s">
         <v>508</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4979,7 +6227,7 @@
       <c r="G75" t="s">
         <v>343</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>452</v>
       </c>
     </row>
@@ -4987,7 +6235,7 @@
       <c r="G76" t="s">
         <v>279</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>465</v>
       </c>
     </row>
@@ -4995,7 +6243,7 @@
       <c r="G77" t="s">
         <v>285</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5003,7 +6251,7 @@
       <c r="G78" t="s">
         <v>290</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5011,7 +6259,7 @@
       <c r="G79" t="s">
         <v>428</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5019,7 +6267,7 @@
       <c r="G80" t="s">
         <v>331</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5027,7 +6275,7 @@
       <c r="G81" t="s">
         <v>269</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5035,7 +6283,7 @@
       <c r="G82" t="s">
         <v>280</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5043,7 +6291,7 @@
       <c r="G83" t="s">
         <v>286</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5051,7 +6299,7 @@
       <c r="G84" t="s">
         <v>275</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5059,7 +6307,7 @@
       <c r="G85" t="s">
         <v>270</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5067,7 +6315,7 @@
       <c r="G86" t="s">
         <v>287</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5075,7 +6323,7 @@
       <c r="G87" t="s">
         <v>271</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5083,7 +6331,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5091,7 +6339,7 @@
       <c r="G89" t="s">
         <v>304</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5099,7 +6347,7 @@
       <c r="G90" t="s">
         <v>310</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5107,7 +6355,7 @@
       <c r="G91" t="s">
         <v>294</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5115,7 +6363,7 @@
       <c r="G92" t="s">
         <v>339</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5123,7 +6371,7 @@
       <c r="G93" t="s">
         <v>276</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5131,172 +6379,172 @@
       <c r="G94" t="s">
         <v>277</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/plan-iteration/artifact/script/Script1.xlsx
+++ b/examples/plan-iteration/artifact/script/Script1.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -51,7 +51,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5401" uniqueCount="545">
   <si>
     <t>description</t>
   </si>
@@ -1684,6 +1684,27 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>exportExcel(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1712,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="156" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2178,8 +2199,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="124">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2878,8 +3404,858 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -4045,6 +5421,1416 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4052,7 +6838,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4329,52 +7115,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="96" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="96" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="99" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="99" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="102" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="105" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="105" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="66" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="111" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="111" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="114" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="114" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="117" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="117" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="126" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="129" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="132" fontId="79" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="135" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="82" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="141" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="144" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="147" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="147" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="156" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="159" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="162" fontId="95" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="165" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="98" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="171" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="174" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="177" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="177" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="186" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="189" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="192" fontId="111" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="195" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="114" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="201" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="204" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="207" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="207" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="216" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="219" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="222" fontId="127" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="225" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="228" fontId="130" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="231" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="234" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="237" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="237" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="240" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="246" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="249" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="252" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="255" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="261" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="264" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="267" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="267" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5095,7 +8121,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -5163,7 +8189,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -5222,7 +8248,7 @@
         <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -5280,6 +8306,9 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
+      <c r="N8" t="s">
+        <v>540</v>
+      </c>
       <c r="Q8" t="s">
         <v>91</v>
       </c>
@@ -5333,6 +8362,9 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
+      <c r="N9" t="s">
+        <v>543</v>
+      </c>
       <c r="Q9" t="s">
         <v>92</v>
       </c>
@@ -5374,6 +8406,9 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
+      <c r="N10" t="s">
+        <v>535</v>
+      </c>
       <c r="Q10" t="s">
         <v>436</v>
       </c>
@@ -5412,6 +8447,9 @@
       <c r="M11" t="s">
         <v>471</v>
       </c>
+      <c r="N11" t="s">
+        <v>536</v>
+      </c>
       <c r="Q11" t="s">
         <v>93</v>
       </c>
@@ -5447,6 +8485,9 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
+      <c r="N12" t="s">
+        <v>537</v>
+      </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
@@ -5762,7 +8803,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>541</v>
       </c>
       <c r="Y25" t="s">
         <v>110</v>
@@ -5779,7 +8820,7 @@
         <v>281</v>
       </c>
       <c r="K26" t="s">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="Y26" t="s">
         <v>111</v>
@@ -5796,7 +8837,7 @@
         <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="Y27" t="s">
         <v>112</v>
@@ -5813,7 +8854,7 @@
         <v>282</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s">
         <v>326</v>
@@ -5828,6 +8869,9 @@
       </c>
       <c r="G29" t="s">
         <v>283</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
       </c>
       <c r="Y29" t="s">
         <v>113</v>

--- a/examples/plan-iteration/artifact/script/Script1.xlsx
+++ b/examples/plan-iteration/artifact/script/Script1.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5401" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5936" uniqueCount="546">
   <si>
     <t>description</t>
   </si>
@@ -1705,6 +1705,9 @@
   </si>
   <si>
     <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1715,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="156" x14ac:knownFonts="1">
+  <fonts count="172" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2704,8 +2707,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="304">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4254,8 +4358,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6831,6 +7105,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6838,7 +7394,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="198">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7355,52 +7911,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="246" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="246" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="249" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="249" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="252" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="252" fontId="143" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="255" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="255" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="261" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="261" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="264" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="264" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="267" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="267" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="267" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="267" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="276" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="279" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="282" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="285" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="291" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="294" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="297" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="297" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7931,7 +8535,7 @@
         <v>456</v>
       </c>
       <c r="D3" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="E3" t="s">
         <v>457</v>
@@ -8014,7 +8618,7 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -8097,7 +8701,7 @@
         <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E5" t="s">
         <v>458</v>
@@ -8166,6 +8770,9 @@
       </c>
       <c r="B6" t="s">
         <v>375</v>
+      </c>
+      <c r="D6" t="s">
+        <v>481</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>

--- a/examples/plan-iteration/artifact/script/Script1.xlsx
+++ b/examples/plan-iteration/artifact/script/Script1.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5936" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7006" uniqueCount="547">
   <si>
     <t>description</t>
   </si>
@@ -1708,6 +1708,9 @@
   </si>
   <si>
     <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1718,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="172" x14ac:knownFonts="1">
+  <fonts count="204" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2808,8 +2811,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="304">
+  <fills count="364">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4528,8 +4733,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7387,6 +7932,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7394,7 +8503,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7959,52 +9068,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="276" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="276" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="279" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="279" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="282" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="282" fontId="159" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="285" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="285" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="162" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="291" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="291" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="294" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="294" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="297" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="297" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="297" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="297" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="306" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="309" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="312" fontId="175" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="315" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="321" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="324" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="327" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="327" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="330" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="336" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="339" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="342" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="345" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="351" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="354" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="357" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="357" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="360" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9410,7 +10615,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="Y25" t="s">
         <v>110</v>

--- a/examples/plan-iteration/artifact/script/Script1.xlsx
+++ b/examples/plan-iteration/artifact/script/Script1.xlsx
@@ -20,17 +20,17 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -44,14 +44,15 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7006" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9210" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1711,6 +1712,60 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1773,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="204" x14ac:knownFonts="1">
+  <fonts count="268" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3013,8 +3068,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="364">
+  <fills count="472">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5073,8 +5532,620 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="467">
     <border>
       <left/>
       <right/>
@@ -8496,6 +9567,1310 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8503,7 +10878,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="294">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9164,52 +11539,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="336" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="336" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="339" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="339" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="342" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="342" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="345" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="345" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="348" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="351" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="351" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="354" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="354" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="357" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="357" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="357" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="357" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="345" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="360" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="360" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="345" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="366" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="369" fontId="206" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="372" fontId="207" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="375" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="210" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="381" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="372" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="384" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="384" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="375" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="387" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="375" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="393" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="396" fontId="222" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="399" fontId="223" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="402" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="226" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="408" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="399" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="411" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="411" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="420" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="423" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="426" fontId="239" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="429" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="242" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="435" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="426" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="438" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="438" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="447" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="450" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="453" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="456" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="462" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="453" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="465" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="465" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9534,7 +12101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9619,21 +12186,24 @@
         <v>396</v>
       </c>
       <c r="Y1" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -9711,21 +12281,24 @@
         <v>406</v>
       </c>
       <c r="Y2" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>431</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -9796,22 +12369,22 @@
       <c r="X3" t="s">
         <v>407</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>363</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9879,22 +12452,22 @@
       <c r="X4" t="s">
         <v>408</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>353</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>423</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9920,6 +12493,9 @@
       <c r="H5" t="s">
         <v>459</v>
       </c>
+      <c r="I5" t="s">
+        <v>549</v>
+      </c>
       <c r="J5" t="s">
         <v>350</v>
       </c>
@@ -9950,22 +12526,22 @@
       <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>354</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -10018,22 +12594,22 @@
       <c r="W6" t="s">
         <v>360</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>444</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>425</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -10053,6 +12629,9 @@
       <c r="H7" t="s">
         <v>446</v>
       </c>
+      <c r="J7" t="s">
+        <v>550</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -10077,23 +12656,23 @@
       <c r="W7" t="s">
         <v>359</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>445</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>426</v>
       </c>
-      <c r="AD7" t="s">
-        <v>231</v>
+      <c r="AE7" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="8">
@@ -10133,23 +12712,23 @@
       <c r="W8" t="s">
         <v>361</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>427</v>
       </c>
-      <c r="AD8" t="s">
-        <v>232</v>
+      <c r="AE8" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="9">
@@ -10189,14 +12768,14 @@
       <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
-        <v>233</v>
+      <c r="AE9" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="10">
@@ -10230,14 +12809,14 @@
       <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
-        <v>474</v>
+      <c r="AE10" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="11">
@@ -10268,14 +12847,14 @@
       <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>258</v>
       </c>
-      <c r="AD11" t="s">
-        <v>500</v>
+      <c r="AE11" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="12">
@@ -10295,7 +12874,7 @@
         <v>389</v>
       </c>
       <c r="M12" t="s">
-        <v>435</v>
+        <v>551</v>
       </c>
       <c r="N12" t="s">
         <v>537</v>
@@ -10306,14 +12885,14 @@
       <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
-        <v>501</v>
+      <c r="AE12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="13">
@@ -10333,7 +12912,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="Q13" t="s">
         <v>94</v>
@@ -10341,14 +12920,14 @@
       <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>325</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
-        <v>502</v>
+      <c r="AE13" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="14">
@@ -10368,7 +12947,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>472</v>
       </c>
       <c r="Q14" t="s">
         <v>95</v>
@@ -10376,14 +12955,14 @@
       <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
-        <v>503</v>
+      <c r="AE14" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="15">
@@ -10400,7 +12979,7 @@
         <v>487</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>491</v>
@@ -10408,14 +12987,14 @@
       <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
-        <v>475</v>
+      <c r="AE15" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="16">
@@ -10432,7 +13011,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>492</v>
@@ -10440,14 +13019,14 @@
       <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
-        <v>504</v>
+      <c r="AE16" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="17">
@@ -10463,14 +13042,17 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" t="s">
         <v>493</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>466</v>
       </c>
-      <c r="AD17" t="s">
-        <v>505</v>
+      <c r="AE17" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="18">
@@ -10486,11 +13068,11 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
-        <v>506</v>
+      <c r="AE18" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="19">
@@ -10506,11 +13088,11 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
-        <v>234</v>
+      <c r="AE19" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="20">
@@ -10526,11 +13108,11 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
-        <v>235</v>
+      <c r="AE20" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="21">
@@ -10546,11 +13128,11 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
-        <v>236</v>
+      <c r="AE21" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="22">
@@ -10558,7 +13140,7 @@
         <v>412</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>561</v>
       </c>
       <c r="G22" t="s">
         <v>298</v>
@@ -10566,8 +13148,11 @@
       <c r="K22" t="s">
         <v>470</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>494</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="23">
@@ -10575,7 +13160,7 @@
         <v>356</v>
       </c>
       <c r="E23" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
         <v>289</v>
@@ -10583,8 +13168,11 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="24">
@@ -10592,7 +13180,7 @@
         <v>396</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
       <c r="G24" t="s">
         <v>278</v>
@@ -10600,16 +13188,19 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>109</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>560</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
         <v>76</v>
@@ -10617,16 +13208,19 @@
       <c r="K25" t="s">
         <v>546</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>110</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="G26" t="s">
         <v>281</v>
@@ -10634,16 +13228,19 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>111</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
         <v>265</v>
@@ -10651,16 +13248,19 @@
       <c r="K27" t="s">
         <v>433</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>112</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>468</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
         <v>282</v>
@@ -10668,16 +13268,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G29" t="s">
         <v>283</v>
@@ -10685,722 +13285,747 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>226</v>
+      </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
         <v>507</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="Y39" t="s">
-        <v>392</v>
+      <c r="Z39" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Y40" t="s">
-        <v>120</v>
+      <c r="Z40" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Y41" t="s">
-        <v>121</v>
+      <c r="Z41" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>122</v>
+        <v>563</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>123</v>
+        <v>288</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>124</v>
+        <v>299</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>125</v>
+        <v>300</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>438</v>
+        <v>342</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>211</v>
+        <v>341</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>77</v>
+        <v>209</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>126</v>
+        <v>319</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>127</v>
+        <v>338</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>128</v>
+        <v>367</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>495</v>
+        <v>301</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>463</v>
+        <v>355</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>129</v>
+        <v>330</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>345</v>
+        <v>267</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>464</v>
+        <v>291</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>130</v>
+        <v>292</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>131</v>
+        <v>564</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>132</v>
+        <v>293</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>133</v>
+        <v>302</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>134</v>
+        <v>311</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>135</v>
+        <v>336</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>136</v>
+        <v>308</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>439</v>
+        <v>309</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>473</v>
+        <v>368</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>212</v>
+        <v>369</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>388</v>
+        <v>344</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>440</v>
+        <v>312</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>137</v>
+        <v>268</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>138</v>
+        <v>547</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>139</v>
+        <v>313</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>140</v>
+        <v>409</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>195</v>
+        <v>303</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>508</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>196</v>
+        <v>410</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>452</v>
+        <v>261</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>465</v>
+        <v>508</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>141</v>
+        <v>343</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>142</v>
+        <v>279</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>143</v>
+        <v>285</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>496</v>
+        <v>290</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>144</v>
+        <v>428</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>145</v>
+        <v>331</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>197</v>
+        <v>269</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>497</v>
+        <v>280</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>198</v>
+        <v>286</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>453</v>
+        <v>275</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>199</v>
+        <v>548</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>200</v>
+        <v>270</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>213</v>
+        <v>287</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>146</v>
+        <v>271</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>201</v>
+        <v>272</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>441</v>
+        <v>304</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>442</v>
+        <v>310</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>277</v>
       </c>
-      <c r="Y94" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
+      <c r="Z97" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="96">
-      <c r="Y96" t="s">
+    <row r="98">
+      <c r="Z98" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="97">
-      <c r="Y97" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/plan-iteration/artifact/script/Script1.xlsx
+++ b/examples/plan-iteration/artifact/script/Script1.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -44,13 +44,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9210" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9761" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1766,6 +1766,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1776,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="268" x14ac:knownFonts="1">
+  <fonts count="284" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3472,8 +3475,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="472">
+  <fills count="499">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6144,8 +6248,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="467">
+  <borders count="499">
     <border>
       <left/>
       <right/>
@@ -10871,6 +11128,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10878,7 +11461,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="310">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11731,52 +12314,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="447" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="447" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="450" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="450" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="453" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="453" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="456" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="456" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="258" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="462" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="462" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="453" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="453" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="465" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="465" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="465" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="465" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="456" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="468" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="456" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="474" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="477" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="480" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="483" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="489" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="480" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="492" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="492" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12101,7 +12732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12186,24 +12817,21 @@
         <v>396</v>
       </c>
       <c r="Y1" t="s">
-        <v>560</v>
+        <v>54</v>
       </c>
       <c r="Z1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC1" t="s">
-        <v>57</v>
+        <v>413</v>
       </c>
       <c r="AD1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -12281,24 +12909,21 @@
         <v>406</v>
       </c>
       <c r="Y2" t="s">
-        <v>562</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AA2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AC2" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
       <c r="AD2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -12369,22 +12994,22 @@
       <c r="X3" t="s">
         <v>407</v>
       </c>
+      <c r="Y3" t="s">
+        <v>97</v>
+      </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AA3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB3" t="s">
-        <v>175</v>
+        <v>363</v>
       </c>
       <c r="AC3" t="s">
-        <v>363</v>
+        <v>182</v>
       </c>
       <c r="AD3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -12452,22 +13077,22 @@
       <c r="X4" t="s">
         <v>408</v>
       </c>
+      <c r="Y4" t="s">
+        <v>353</v>
+      </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>171</v>
       </c>
       <c r="AA4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AB4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC4" t="s">
-        <v>182</v>
+        <v>423</v>
       </c>
       <c r="AD4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -12526,22 +13151,22 @@
       <c r="W5" t="s">
         <v>358</v>
       </c>
+      <c r="Y5" t="s">
+        <v>354</v>
+      </c>
       <c r="Z5" t="s">
-        <v>354</v>
+        <v>172</v>
       </c>
       <c r="AA5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC5" t="s">
-        <v>183</v>
+        <v>424</v>
       </c>
       <c r="AD5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -12594,22 +13219,22 @@
       <c r="W6" t="s">
         <v>360</v>
       </c>
+      <c r="Y6" t="s">
+        <v>98</v>
+      </c>
       <c r="Z6" t="s">
-        <v>98</v>
+        <v>444</v>
       </c>
       <c r="AA6" t="s">
-        <v>444</v>
+        <v>178</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC6" t="s">
-        <v>184</v>
+        <v>425</v>
       </c>
       <c r="AD6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -12656,22 +13281,22 @@
       <c r="W7" t="s">
         <v>359</v>
       </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
       <c r="Z7" t="s">
-        <v>99</v>
+        <v>445</v>
       </c>
       <c r="AA7" t="s">
-        <v>445</v>
+        <v>179</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC7" t="s">
-        <v>185</v>
+        <v>426</v>
       </c>
       <c r="AD7" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE7" t="s">
         <v>554</v>
       </c>
     </row>
@@ -12712,22 +13337,22 @@
       <c r="W8" t="s">
         <v>361</v>
       </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AA8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC8" t="s">
-        <v>186</v>
+        <v>427</v>
       </c>
       <c r="AD8" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE8" t="s">
         <v>555</v>
       </c>
     </row>
@@ -12768,13 +13393,13 @@
       <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>556</v>
       </c>
     </row>
@@ -12809,13 +13434,13 @@
       <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>256</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -12847,13 +13472,13 @@
       <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>257</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>258</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -12885,13 +13510,13 @@
       <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -12920,13 +13545,13 @@
       <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>325</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>474</v>
       </c>
     </row>
@@ -12955,13 +13580,13 @@
       <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>500</v>
       </c>
     </row>
@@ -12987,13 +13612,13 @@
       <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>501</v>
       </c>
     </row>
@@ -13011,7 +13636,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>565</v>
       </c>
       <c r="Q16" t="s">
         <v>492</v>
@@ -13019,13 +13644,13 @@
       <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>502</v>
       </c>
     </row>
@@ -13043,15 +13668,15 @@
         <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>493</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>466</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>503</v>
       </c>
     </row>
@@ -13068,10 +13693,13 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>475</v>
       </c>
     </row>
@@ -13088,10 +13716,10 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>504</v>
       </c>
     </row>
@@ -13108,10 +13736,10 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>505</v>
       </c>
     </row>
@@ -13128,10 +13756,10 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>506</v>
       </c>
     </row>
@@ -13148,10 +13776,10 @@
       <c r="K22" t="s">
         <v>470</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>494</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -13168,10 +13796,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>108</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>557</v>
       </c>
     </row>
@@ -13188,16 +13816,16 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>109</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>560</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>63</v>
@@ -13208,16 +13836,16 @@
       <c r="K25" t="s">
         <v>546</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>110</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>448</v>
@@ -13228,16 +13856,16 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>111</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>224</v>
@@ -13248,16 +13876,16 @@
       <c r="K27" t="s">
         <v>433</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>112</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>225</v>
@@ -13268,13 +13896,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>468</v>
@@ -13285,13 +13913,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
         <v>469</v>
@@ -13299,21 +13927,18 @@
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>226</v>
-      </c>
       <c r="E31" t="s">
         <v>415</v>
       </c>
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>115</v>
       </c>
     </row>
@@ -13324,7 +13949,7 @@
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>116</v>
       </c>
     </row>
@@ -13335,7 +13960,7 @@
       <c r="G33" t="s">
         <v>507</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>117</v>
       </c>
     </row>
@@ -13346,7 +13971,7 @@
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -13357,7 +13982,7 @@
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -13368,7 +13993,7 @@
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -13379,7 +14004,7 @@
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>337</v>
       </c>
     </row>
@@ -13390,7 +14015,7 @@
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>437</v>
       </c>
     </row>
@@ -13401,7 +14026,7 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>552</v>
       </c>
     </row>
@@ -13409,7 +14034,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>392</v>
       </c>
     </row>
@@ -13417,7 +14042,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -13425,7 +14050,7 @@
       <c r="G42" t="s">
         <v>563</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>121</v>
       </c>
     </row>
@@ -13433,7 +14058,7 @@
       <c r="G43" t="s">
         <v>288</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13441,7 +14066,7 @@
       <c r="G44" t="s">
         <v>299</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -13449,7 +14074,7 @@
       <c r="G45" t="s">
         <v>300</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>124</v>
       </c>
     </row>
@@ -13457,7 +14082,7 @@
       <c r="G46" t="s">
         <v>342</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>125</v>
       </c>
     </row>
@@ -13465,7 +14090,7 @@
       <c r="G47" t="s">
         <v>341</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>438</v>
       </c>
     </row>
@@ -13473,7 +14098,7 @@
       <c r="G48" t="s">
         <v>209</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>211</v>
       </c>
     </row>
@@ -13481,7 +14106,7 @@
       <c r="G49" t="s">
         <v>319</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -13489,7 +14114,7 @@
       <c r="G50" t="s">
         <v>338</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>553</v>
       </c>
     </row>
@@ -13497,7 +14122,7 @@
       <c r="G51" t="s">
         <v>367</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -13505,7 +14130,7 @@
       <c r="G52" t="s">
         <v>301</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13513,7 +14138,7 @@
       <c r="G53" t="s">
         <v>355</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>128</v>
       </c>
     </row>
@@ -13521,7 +14146,7 @@
       <c r="G54" t="s">
         <v>330</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>495</v>
       </c>
     </row>
@@ -13529,7 +14154,7 @@
       <c r="G55" t="s">
         <v>267</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>463</v>
       </c>
     </row>
@@ -13537,7 +14162,7 @@
       <c r="G56" t="s">
         <v>291</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>129</v>
       </c>
     </row>
@@ -13545,7 +14170,7 @@
       <c r="G57" t="s">
         <v>292</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>345</v>
       </c>
     </row>
@@ -13553,7 +14178,7 @@
       <c r="G58" t="s">
         <v>564</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>464</v>
       </c>
     </row>
@@ -13561,7 +14186,7 @@
       <c r="G59" t="s">
         <v>293</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -13569,7 +14194,7 @@
       <c r="G60" t="s">
         <v>302</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -13577,7 +14202,7 @@
       <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -13585,7 +14210,7 @@
       <c r="G62" t="s">
         <v>336</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -13593,7 +14218,7 @@
       <c r="G63" t="s">
         <v>308</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -13601,7 +14226,7 @@
       <c r="G64" t="s">
         <v>309</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>135</v>
       </c>
     </row>
@@ -13609,7 +14234,7 @@
       <c r="G65" t="s">
         <v>368</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13617,7 +14242,7 @@
       <c r="G66" t="s">
         <v>369</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>439</v>
       </c>
     </row>
@@ -13625,7 +14250,7 @@
       <c r="G67" t="s">
         <v>344</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>473</v>
       </c>
     </row>
@@ -13633,7 +14258,7 @@
       <c r="G68" t="s">
         <v>312</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>212</v>
       </c>
     </row>
@@ -13641,7 +14266,7 @@
       <c r="G69" t="s">
         <v>268</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>388</v>
       </c>
     </row>
@@ -13649,7 +14274,7 @@
       <c r="G70" t="s">
         <v>547</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>440</v>
       </c>
     </row>
@@ -13657,7 +14282,7 @@
       <c r="G71" t="s">
         <v>313</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13665,7 +14290,7 @@
       <c r="G72" t="s">
         <v>409</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -13673,7 +14298,7 @@
       <c r="G73" t="s">
         <v>303</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13681,7 +14306,7 @@
       <c r="G74" t="s">
         <v>410</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13689,7 +14314,7 @@
       <c r="G75" t="s">
         <v>261</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>195</v>
       </c>
     </row>
@@ -13697,7 +14322,7 @@
       <c r="G76" t="s">
         <v>508</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>196</v>
       </c>
     </row>
@@ -13705,7 +14330,7 @@
       <c r="G77" t="s">
         <v>343</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>452</v>
       </c>
     </row>
@@ -13713,7 +14338,7 @@
       <c r="G78" t="s">
         <v>279</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>465</v>
       </c>
     </row>
@@ -13721,7 +14346,7 @@
       <c r="G79" t="s">
         <v>285</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -13729,7 +14354,7 @@
       <c r="G80" t="s">
         <v>290</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>142</v>
       </c>
     </row>
@@ -13737,7 +14362,7 @@
       <c r="G81" t="s">
         <v>428</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13745,7 +14370,7 @@
       <c r="G82" t="s">
         <v>331</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>496</v>
       </c>
     </row>
@@ -13753,7 +14378,7 @@
       <c r="G83" t="s">
         <v>269</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>144</v>
       </c>
     </row>
@@ -13761,7 +14386,7 @@
       <c r="G84" t="s">
         <v>280</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>145</v>
       </c>
     </row>
@@ -13769,7 +14394,7 @@
       <c r="G85" t="s">
         <v>286</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -13777,7 +14402,7 @@
       <c r="G86" t="s">
         <v>275</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>497</v>
       </c>
     </row>
@@ -13785,7 +14410,7 @@
       <c r="G87" t="s">
         <v>548</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>198</v>
       </c>
     </row>
@@ -13793,7 +14418,7 @@
       <c r="G88" t="s">
         <v>270</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>453</v>
       </c>
     </row>
@@ -13801,7 +14426,7 @@
       <c r="G89" t="s">
         <v>287</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>199</v>
       </c>
     </row>
@@ -13809,7 +14434,7 @@
       <c r="G90" t="s">
         <v>271</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>200</v>
       </c>
     </row>
@@ -13817,7 +14442,7 @@
       <c r="G91" t="s">
         <v>272</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>213</v>
       </c>
     </row>
@@ -13825,7 +14450,7 @@
       <c r="G92" t="s">
         <v>304</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>146</v>
       </c>
     </row>
@@ -13833,7 +14458,7 @@
       <c r="G93" t="s">
         <v>310</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>201</v>
       </c>
     </row>
@@ -13841,7 +14466,7 @@
       <c r="G94" t="s">
         <v>294</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>441</v>
       </c>
     </row>
@@ -13849,7 +14474,7 @@
       <c r="G95" t="s">
         <v>339</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>442</v>
       </c>
     </row>
@@ -13857,7 +14482,7 @@
       <c r="G96" t="s">
         <v>276</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>202</v>
       </c>
     </row>
@@ -13865,167 +14490,167 @@
       <c r="G97" t="s">
         <v>277</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/plan-iteration/artifact/script/Script1.xlsx
+++ b/examples/plan-iteration/artifact/script/Script1.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9761" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11428" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1769,6 +1769,24 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1794,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="284" x14ac:knownFonts="1">
+  <fonts count="332" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3576,8 +3594,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="499">
+  <fills count="580">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6401,8 +6722,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="499">
+  <borders count="595">
     <border>
       <left/>
       <right/>
@@ -11454,6 +12234,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11461,7 +13219,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="358">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12362,52 +14120,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="474" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="474" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="477" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="477" fontId="270" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="480" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="480" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="483" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="483" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="274" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="489" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="489" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="480" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="480" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="492" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="492" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="492" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="492" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="495" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="498" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="501" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="504" fontId="286" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="507" fontId="287" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="510" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="290" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="516" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="507" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="519" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="519" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="528" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="531" fontId="302" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="534" fontId="303" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="537" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="306" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="543" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="534" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="546" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="546" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="555" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="558" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="561" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="564" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="570" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="561" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="573" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="573" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12732,7 +14634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13113,7 +15015,7 @@
         <v>432</v>
       </c>
       <c r="G5" t="s">
-        <v>335</v>
+        <v>569</v>
       </c>
       <c r="H5" t="s">
         <v>459</v>
@@ -13187,7 +15089,7 @@
         <v>482</v>
       </c>
       <c r="G6" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="H6" t="s">
         <v>447</v>
@@ -13249,7 +15151,7 @@
         <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="H7" t="s">
         <v>446</v>
@@ -13311,7 +15213,7 @@
         <v>317</v>
       </c>
       <c r="G8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H8" t="s">
         <v>327</v>
@@ -13367,7 +15269,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="H9" t="s">
         <v>328</v>
@@ -13411,7 +15313,7 @@
         <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
         <v>451</v>
@@ -13452,7 +15354,7 @@
         <v>254</v>
       </c>
       <c r="G11" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="H11" t="s">
         <v>321</v>
@@ -13490,7 +15392,7 @@
         <v>318</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H12" t="s">
         <v>322</v>
@@ -13528,7 +15430,7 @@
         <v>340</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
         <v>323</v>
@@ -13563,7 +15465,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="H14" t="s">
         <v>324</v>
@@ -13598,7 +15500,7 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K15" t="s">
         <v>487</v>
@@ -13630,7 +15532,7 @@
         <v>384</v>
       </c>
       <c r="G16" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
@@ -13662,7 +15564,7 @@
         <v>385</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="K17" t="s">
         <v>82</v>
@@ -13688,7 +15590,7 @@
         <v>414</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>462</v>
@@ -13711,7 +15613,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>295</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>83</v>
@@ -13731,7 +15633,7 @@
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -13751,7 +15653,7 @@
         <v>255</v>
       </c>
       <c r="G21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K21" t="s">
         <v>379</v>
@@ -13771,7 +15673,7 @@
         <v>561</v>
       </c>
       <c r="G22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K22" t="s">
         <v>470</v>
@@ -13791,7 +15693,7 @@
         <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -13811,13 +15713,13 @@
         <v>320</v>
       </c>
       <c r="G24" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="K24" t="s">
         <v>391</v>
       </c>
       <c r="Y24" t="s">
-        <v>109</v>
+        <v>566</v>
       </c>
       <c r="AD24" t="s">
         <v>558</v>
@@ -13831,13 +15733,13 @@
         <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="K25" t="s">
         <v>546</v>
       </c>
       <c r="Y25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD25" t="s">
         <v>559</v>
@@ -13851,13 +15753,13 @@
         <v>448</v>
       </c>
       <c r="G26" t="s">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
       </c>
       <c r="Y26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD26" t="s">
         <v>235</v>
@@ -13871,13 +15773,13 @@
         <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
         <v>433</v>
       </c>
       <c r="Y27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD27" t="s">
         <v>236</v>
@@ -13891,13 +15793,13 @@
         <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>326</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -13908,13 +15810,13 @@
         <v>468</v>
       </c>
       <c r="G29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>113</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30">
@@ -13925,10 +15827,10 @@
         <v>469</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -13936,10 +15838,10 @@
         <v>415</v>
       </c>
       <c r="G31" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -13947,10 +15849,10 @@
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Y32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -13958,10 +15860,10 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>507</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -13969,10 +15871,10 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>507</v>
       </c>
       <c r="Y34" t="s">
-        <v>118</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35">
@@ -13980,10 +15882,10 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="Y35" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -13991,10 +15893,10 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -14002,10 +15904,10 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="Y37" t="s">
-        <v>337</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
@@ -14013,10 +15915,10 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="Y38" t="s">
-        <v>437</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -14024,633 +15926,661 @@
         <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="Y39" t="s">
-        <v>552</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="Y40" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
-        <v>120</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>563</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s">
-        <v>121</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>288</v>
+        <v>563</v>
       </c>
       <c r="Y43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="Y44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="Y46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y47" t="s">
-        <v>438</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>209</v>
+        <v>341</v>
       </c>
       <c r="Y48" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="Y49" t="s">
-        <v>77</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="Y50" t="s">
-        <v>553</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="Y51" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="Y52" t="s">
-        <v>127</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="Y53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="Y54" t="s">
-        <v>495</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="Y55" t="s">
-        <v>463</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="Y56" t="s">
-        <v>129</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y57" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>564</v>
+        <v>292</v>
       </c>
       <c r="Y58" t="s">
-        <v>464</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>293</v>
+        <v>564</v>
       </c>
       <c r="Y59" t="s">
-        <v>130</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Y60" t="s">
-        <v>131</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="Y61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="Y63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="Y65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y66" t="s">
-        <v>439</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="Y67" t="s">
-        <v>473</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="Y68" t="s">
-        <v>212</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="Y69" t="s">
-        <v>388</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>547</v>
+        <v>268</v>
       </c>
       <c r="Y70" t="s">
-        <v>440</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>313</v>
+        <v>547</v>
       </c>
       <c r="Y71" t="s">
-        <v>137</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="Y72" t="s">
-        <v>138</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="Y73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="Y74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="Y75" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>508</v>
+        <v>261</v>
       </c>
       <c r="Y76" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>343</v>
+        <v>508</v>
       </c>
       <c r="Y77" t="s">
-        <v>452</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="Y78" t="s">
-        <v>465</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Y79" t="s">
-        <v>141</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Y80" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>428</v>
+        <v>290</v>
       </c>
       <c r="Y81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>331</v>
+        <v>428</v>
       </c>
       <c r="Y82" t="s">
-        <v>496</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="Y83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="Y84" t="s">
-        <v>145</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Y85" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Y86" t="s">
-        <v>497</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>548</v>
+        <v>275</v>
       </c>
       <c r="Y87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>270</v>
+        <v>548</v>
       </c>
       <c r="Y88" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="Y89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="Y90" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y91" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="Y92" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Y93" t="s">
-        <v>201</v>
+        <v>570</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="Y94" t="s">
-        <v>441</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="Y95" t="s">
-        <v>442</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="Y96" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>277</v>
       </c>
-      <c r="Y97" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>204</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>498</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>529</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>530</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>382</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>148</v>
+        <v>529</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>150</v>
+        <v>530</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>443</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>164</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>568</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/plan-iteration/artifact/script/Script1.xlsx
+++ b/examples/plan-iteration/artifact/script/Script1.xlsx
@@ -20,39 +20,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11428" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12550" uniqueCount="578">
   <si>
     <t>description</t>
   </si>
@@ -1787,6 +1788,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1813,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="332" x14ac:knownFonts="1">
+  <fonts count="364" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3897,8 +3916,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="580">
+  <fills count="634">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7181,8 +7402,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="595">
+  <borders count="659">
     <border>
       <left/>
       <right/>
@@ -13212,6 +13739,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13219,7 +14398,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="390">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14264,52 +15443,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="555" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="555" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="558" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="558" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="561" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="561" fontId="319" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="564" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="564" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="322" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="570" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="570" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="561" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="561" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="573" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="573" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="573" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="573" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="582" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="585" fontId="334" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="588" fontId="335" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="591" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="338" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="597" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="588" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="624" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="615" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="627" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="627" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14634,7 +15909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14659,81 +15934,84 @@
         <v>476</v>
       </c>
       <c r="E1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>346</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>332</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>531</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>477</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>238</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>411</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>412</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>356</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>396</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -14751,81 +16029,84 @@
         <v>478</v>
       </c>
       <c r="E2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>449</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>460</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>314</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>383</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>434</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>532</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>488</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>429</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>252</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>216</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>397</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>418</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>419</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>380</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>406</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>431</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -14842,76 +16123,76 @@
       <c r="D3" t="s">
         <v>545</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>364</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>483</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>348</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>340</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>333</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>533</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>489</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>430</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>239</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>217</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>398</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>420</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>381</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>407</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>363</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -14925,82 +16206,82 @@
       <c r="D4" t="s">
         <v>479</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>386</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>450</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>484</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>349</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>237</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>334</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>534</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>490</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>240</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>218</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>399</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>421</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>357</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>408</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>353</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>423</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>572</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
@@ -15008,73 +16289,73 @@
       <c r="D5" t="s">
         <v>480</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>458</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>432</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>569</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>459</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>549</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>350</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>461</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>544</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>241</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>219</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>400</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>422</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
-        <v>354</v>
-      </c>
       <c r="Z5" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
@@ -15082,1505 +16363,1513 @@
       <c r="D6" t="s">
         <v>481</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>482</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>335</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>447</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>347</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>538</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>242</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>390</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>401</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>360</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>444</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>425</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>223</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>387</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>446</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>550</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>314</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>539</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>243</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>417</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>402</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>359</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>445</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>426</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>317</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>365</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>327</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>485</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>540</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>244</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>403</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>361</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>427</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>366</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>328</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>543</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>245</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>404</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>362</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>314</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>305</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>451</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>535</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>436</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>246</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>405</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" t="s">
+        <v>575</v>
+      </c>
+      <c r="H11" t="s">
         <v>351</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>321</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>486</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>471</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>536</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>258</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>318</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>273</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>322</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>389</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>551</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>537</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>248</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" t="s">
         <v>340</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>262</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>323</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>435</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>94</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>325</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>531</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>315</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>324</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>472</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>95</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>249</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>477</v>
-      </c>
-      <c r="E15" t="s">
+        <v>531</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>263</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>487</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>491</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>250</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" t="s">
+        <v>477</v>
+      </c>
+      <c r="F16" t="s">
         <v>384</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>264</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>565</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>492</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>251</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
         <v>385</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>316</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>82</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>493</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>466</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>414</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>89</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>462</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>295</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F21" t="s">
         <v>255</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>296</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>379</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>412</v>
-      </c>
-      <c r="E22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" t="s">
         <v>561</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>297</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>470</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>494</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>298</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>396</v>
-      </c>
-      <c r="E24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" t="s">
         <v>320</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>289</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>391</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>566</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>278</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>546</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>109</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
         <v>448</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>110</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
         <v>224</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>281</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>433</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>111</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
         <v>225</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>265</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
-      </c>
-      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
         <v>468</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>282</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" t="s">
+        <v>469</v>
+      </c>
+      <c r="H30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>226</v>
       </c>
-      <c r="E30" t="s">
-        <v>469</v>
-      </c>
-      <c r="G30" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>415</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>215</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>274</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>65</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>284</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>507</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>67</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>259</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>68</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>329</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>69</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>306</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>260</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>71</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Y41" t="s">
-        <v>552</v>
+      <c r="Z41" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>563</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>564</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>547</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>508</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>548</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/plan-iteration/artifact/script/Script1.xlsx
+++ b/examples/plan-iteration/artifact/script/Script1.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12550" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13675" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1806,6 +1806,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1828,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="364" x14ac:knownFonts="1">
+  <fonts count="396" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4118,8 +4133,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="634">
+  <fills count="688">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7708,8 +7925,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="659">
+  <borders count="723">
     <border>
       <left/>
       <right/>
@@ -10953,6 +11476,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -14398,7 +15573,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="422">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15539,52 +16714,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="609" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="612" fontId="350" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="615" fontId="351" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="353" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="354" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="624" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="624" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="615" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="615" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="627" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="627" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="627" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="627" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="363" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="636" fontId="364" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="639" fontId="366" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="642" fontId="367" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="645" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="370" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="651" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="642" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="654" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="654" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="377" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="378" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="663" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="666" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="669" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="672" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="678" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="669" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="681" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="681" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16225,7 +17496,7 @@
         <v>349</v>
       </c>
       <c r="L4" t="s">
-        <v>237</v>
+        <v>581</v>
       </c>
       <c r="M4" t="s">
         <v>334</v>
@@ -16261,7 +17532,7 @@
         <v>408</v>
       </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>582</v>
       </c>
       <c r="AA4" t="s">
         <v>171</v>
@@ -16308,7 +17579,7 @@
         <v>350</v>
       </c>
       <c r="L5" t="s">
-        <v>461</v>
+        <v>237</v>
       </c>
       <c r="N5" t="s">
         <v>87</v>
@@ -16379,7 +17650,7 @@
         <v>347</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>461</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -16441,7 +17712,7 @@
         <v>550</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
         <v>314</v>
@@ -16500,7 +17771,7 @@
         <v>327</v>
       </c>
       <c r="L8" t="s">
-        <v>485</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -16556,7 +17827,7 @@
         <v>328</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -16600,7 +17871,7 @@
         <v>451</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -16641,7 +17912,7 @@
         <v>321</v>
       </c>
       <c r="L11" t="s">
-        <v>486</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>471</v>
@@ -16679,7 +17950,7 @@
         <v>322</v>
       </c>
       <c r="L12" t="s">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="N12" t="s">
         <v>551</v>
@@ -16717,7 +17988,7 @@
         <v>323</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>389</v>
       </c>
       <c r="N13" t="s">
         <v>435</v>
@@ -16752,7 +18023,7 @@
         <v>324</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>472</v>
@@ -16784,7 +18055,7 @@
         <v>263</v>
       </c>
       <c r="L15" t="s">
-        <v>487</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -16816,7 +18087,7 @@
         <v>264</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="N16" t="s">
         <v>565</v>
@@ -16848,7 +18119,7 @@
         <v>316</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -16874,7 +18145,7 @@
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -16891,13 +18162,13 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="Z19" t="s">
         <v>105</v>
@@ -16911,13 +18182,13 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
         <v>106</v>
@@ -16931,13 +18202,13 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>379</v>
+        <v>84</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -16951,13 +18222,13 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>561</v>
+        <v>255</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
       </c>
       <c r="L22" t="s">
-        <v>470</v>
+        <v>579</v>
       </c>
       <c r="Z22" t="s">
         <v>494</v>
@@ -16971,13 +18242,13 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>561</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>470</v>
       </c>
       <c r="Z23" t="s">
         <v>108</v>
@@ -16991,13 +18262,13 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
       </c>
       <c r="L24" t="s">
-        <v>391</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>566</v>
@@ -17011,13 +18282,13 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
       </c>
       <c r="L25" t="s">
-        <v>546</v>
+        <v>391</v>
       </c>
       <c r="Z25" t="s">
         <v>109</v>
@@ -17031,13 +18302,13 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>546</v>
       </c>
       <c r="Z26" t="s">
         <v>110</v>
@@ -17051,13 +18322,13 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="s">
         <v>111</v>
@@ -17071,13 +18342,13 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="Z28" t="s">
         <v>112</v>
@@ -17088,13 +18359,13 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>468</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>326</v>
@@ -17105,10 +18376,13 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>113</v>
@@ -17119,7 +18393,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -17130,7 +18404,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -17141,7 +18415,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -17152,7 +18426,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>507</v>
@@ -17163,7 +18437,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -17174,7 +18448,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -17185,7 +18459,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -17196,7 +18470,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -17207,7 +18481,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -17217,6 +18491,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>

--- a/examples/plan-iteration/artifact/script/Script1.xlsx
+++ b/examples/plan-iteration/artifact/script/Script1.xlsx
@@ -20,13 +20,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13675" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14240" uniqueCount="586">
   <si>
     <t>description</t>
   </si>
@@ -1821,6 +1821,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1837,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="396" x14ac:knownFonts="1">
+  <fonts count="412" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4335,8 +4344,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="688">
+  <fills count="715">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8231,8 +8341,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="723">
+  <borders count="755">
     <border>
       <left/>
       <right/>
@@ -11476,6 +11739,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -15573,7 +16162,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="422">
+  <cellXfs count="438">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16810,52 +17399,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="663" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="663" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="666" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="666" fontId="382" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="669" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="669" fontId="383" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="672" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="672" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="385" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="386" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="678" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="678" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="669" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="669" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="681" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="681" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="681" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="681" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="684" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="690" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="693" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="696" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="699" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="705" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="696" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="708" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="708" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="714" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17180,7 +17817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17646,6 +18283,9 @@
       <c r="I6" t="s">
         <v>447</v>
       </c>
+      <c r="J6" t="s">
+        <v>583</v>
+      </c>
       <c r="K6" t="s">
         <v>347</v>
       </c>
@@ -18162,7 +18802,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>580</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -18182,7 +18822,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -18202,7 +18842,7 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -18222,7 +18862,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>561</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -18242,7 +18882,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>561</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -18262,7 +18902,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -18282,7 +18922,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -18302,7 +18942,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>448</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -18322,7 +18962,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -18342,7 +18982,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -18359,7 +18999,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>468</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -18376,7 +19016,7 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -18393,7 +19033,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>469</v>
+        <v>415</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -18404,7 +19044,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>415</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -18415,7 +19055,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -18426,7 +19066,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>507</v>
@@ -18437,7 +19077,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -18448,7 +19088,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -18459,7 +19099,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -18470,7 +19110,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -18481,7 +19121,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -18491,9 +19131,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
@@ -18967,186 +19604,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>442</v>
+        <v>584</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>202</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>498</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>574</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>147</v>
+        <v>574</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>382</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>148</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>443</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>568</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>163</v>
+        <v>568</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/plan-iteration/artifact/script/Script1.xlsx
+++ b/examples/plan-iteration/artifact/script/Script1.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14240" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14805" uniqueCount="586">
   <si>
     <t>description</t>
   </si>
@@ -1837,7 +1837,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="412" x14ac:knownFonts="1">
+  <fonts count="428" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4445,8 +4445,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="715">
+  <fills count="742">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8494,8 +8595,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="755">
+  <borders count="787">
     <border>
       <left/>
       <right/>
@@ -11739,6 +11993,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16162,7 +16742,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="438">
+  <cellXfs count="454">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17447,52 +18027,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="690" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="690" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="693" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="693" fontId="398" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="696" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="696" fontId="399" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="699" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="699" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="401" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="402" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="705" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="705" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="696" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="696" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="708" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="708" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="708" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="708" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="714" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="717" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="720" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="723" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="726" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="732" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="723" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="735" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="735" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="741" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/plan-iteration/artifact/script/Script1.xlsx
+++ b/examples/plan-iteration/artifact/script/Script1.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14805" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15370" uniqueCount="586">
   <si>
     <t>description</t>
   </si>
@@ -1837,7 +1837,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="428" x14ac:knownFonts="1">
+  <fonts count="444" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4546,8 +4546,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="742">
+  <fills count="769">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8748,8 +8849,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="787">
+  <borders count="819">
     <border>
       <left/>
       <right/>
@@ -11993,6 +12247,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16742,7 +17322,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="454">
+  <cellXfs count="470">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18075,52 +18655,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="717" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="717" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="720" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="720" fontId="414" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="723" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="723" fontId="415" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="726" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="726" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="417" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="418" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="732" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="732" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="723" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="723" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="735" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="735" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="735" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="735" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="741" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="741" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="744" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="747" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="750" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="753" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="759" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="750" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="762" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="762" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
